--- a/samples/data/test_case.xlsx
+++ b/samples/data/test_case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23117"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\Scripts\API_TEST_FRAME\samples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46A6B77-B9F1-4E91-AFBF-2DE9D0166542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8443821A-10A8-4C8E-9011-5298160DAEB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="195" windowWidth="23970" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>json键是否存在</t>
   </si>
   <si>
-    <t>access_token,expires_in</t>
-  </si>
-  <si>
     <t>case02</t>
   </si>
   <si>
@@ -165,6 +162,10 @@
   </si>
   <si>
     <t>/cgi-bin/tags/delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_token1,expires_in</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -232,10 +233,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +517,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -612,19 +613,19 @@
       <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>24</v>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -642,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
@@ -715,51 +716,51 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
         <v>44</v>
-      </c>
-      <c r="N6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.15">

--- a/samples/data/test_case.xlsx
+++ b/samples/data/test_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\Scripts\API_TEST_FRAME\samples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8443821A-10A8-4C8E-9011-5298160DAEB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770F5532-BBC9-4E71-BC42-81E902A6E7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="195" windowWidth="23970" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="1140" windowWidth="33750" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +235,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -538,7 +544,7 @@
     <col min="14" max="14" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -617,14 +623,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
@@ -658,10 +664,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" t="s">
         <v>32</v>
       </c>
@@ -690,14 +696,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
@@ -731,10 +737,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>32</v>
       </c>
@@ -763,17 +769,162 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="18">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
